--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -14,30 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>time</t>
+    <t>week</t>
   </si>
   <si>
     <t>user</t>
   </si>
   <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>2025-07-21</t>
+  </si>
+  <si>
     <t>2025-07-22</t>
   </si>
   <si>
-    <t>上午</t>
-  </si>
-  <si>
-    <t>下午</t>
-  </si>
-  <si>
-    <t>老師A</t>
-  </si>
-  <si>
-    <t>老師B</t>
+    <t>週一</t>
+  </si>
+  <si>
+    <t>週二</t>
+  </si>
+  <si>
+    <t>小A</t>
+  </si>
+  <si>
+    <t>小B</t>
+  </si>
+  <si>
+    <t>小C</t>
+  </si>
+  <si>
+    <t>教學</t>
+  </si>
+  <si>
+    <t>備課</t>
   </si>
 </sst>
 </file>
@@ -395,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,27 +426,50 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
